--- a/email_addresses.xlsx
+++ b/email_addresses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gshuttle/Documents/Git/Webex-Automation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cpanchal/Code/automating-virtual-meetings-webex-teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D955F1-A699-334D-B757-5347247C6E4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C771B91-7B1E-7E46-957B-A42FDAACD6FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16340" xr2:uid="{2833524E-8BF6-1345-84DA-D665169C5309}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{2833524E-8BF6-1345-84DA-D665169C5309}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,37 +30,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Email Address</t>
   </si>
   <si>
-    <t>GoogleTasks.bot@webex.bot</t>
-  </si>
-  <si>
-    <t>JiraCloud.bot@webex.bot</t>
-  </si>
-  <si>
-    <t>memebot@webex.bot</t>
-  </si>
-  <si>
-    <t>scrumgenius@webex.bot</t>
-  </si>
-  <si>
-    <t>webex@webex.bot</t>
-  </si>
-  <si>
-    <t>gshuttle@cisco.com</t>
-  </si>
-  <si>
-    <t>cpanchal@cisco.com</t>
+    <t>Room Name</t>
+  </si>
+  <si>
+    <t>Welcome Message</t>
+  </si>
+  <si>
+    <t>Test Meeting1</t>
+  </si>
+  <si>
+    <t>Test Meeting2</t>
+  </si>
+  <si>
+    <t>Test Meeting3</t>
+  </si>
+  <si>
+    <t>Message1</t>
+  </si>
+  <si>
+    <t>Message2</t>
+  </si>
+  <si>
+    <t>Message3</t>
+  </si>
+  <si>
+    <t>Test Meeting0</t>
+  </si>
+  <si>
+    <t>Message0</t>
+  </si>
+  <si>
+    <t>cpanchal@cisco.com, jiracloud.bot@webex.bot</t>
+  </si>
+  <si>
+    <t>cpanchal@cisco.com, memebot@webex.bot</t>
+  </si>
+  <si>
+    <t>cpanchal@cisco.com, scrumgenius@webex.bot</t>
+  </si>
+  <si>
+    <t>cpanchal@cisco.com, webex@webex.bot</t>
+  </si>
+  <si>
+    <t>GoogleTasks.bot@webex.bot, cpanchal@cisco.com</t>
+  </si>
+  <si>
+    <t>Test Meeting4</t>
+  </si>
+  <si>
+    <t>Message4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,6 +110,12 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -425,59 +461,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7788224B-CB5D-FC41-9916-A2B2BA1B090A}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="B1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{E2D93C1D-8200-F241-8629-7BBF5367838D}"/>
-    <hyperlink ref="A8" r:id="rId2" xr:uid="{EB6D7266-7BDF-3644-9CC4-457B8D2144DC}"/>
-  </hyperlinks>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/email_addresses.xlsx
+++ b/email_addresses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cpanchal/Code/automating-virtual-meetings-webex-teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C771B91-7B1E-7E46-957B-A42FDAACD6FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9A4004-5716-BA4F-8D15-31F5481C8F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{2833524E-8BF6-1345-84DA-D665169C5309}"/>
   </bookViews>
@@ -68,22 +68,22 @@
     <t>cpanchal@cisco.com, jiracloud.bot@webex.bot</t>
   </si>
   <si>
-    <t>cpanchal@cisco.com, memebot@webex.bot</t>
-  </si>
-  <si>
     <t>cpanchal@cisco.com, scrumgenius@webex.bot</t>
   </si>
   <si>
     <t>cpanchal@cisco.com, webex@webex.bot</t>
   </si>
   <si>
-    <t>GoogleTasks.bot@webex.bot, cpanchal@cisco.com</t>
-  </si>
-  <si>
     <t>Test Meeting4</t>
   </si>
   <si>
     <t>Message4</t>
+  </si>
+  <si>
+    <t>GoogleTasks.bot@webex.bot, cpanchal@cisco.com, gshuttle@cisco.com</t>
+  </si>
+  <si>
+    <t>cpanchal@cisco.com, memebot@webex.bot, gshuttle@cisco.com</t>
   </si>
 </sst>
 </file>
@@ -464,13 +464,13 @@
   <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
@@ -515,7 +515,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -526,18 +526,18 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
